--- a/Solar_Forecast_24H/Input_data.xlsx
+++ b/Solar_Forecast_24H/Input_data.xlsx
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.845499992370605</v>
+        <v>2.14549994468689</v>
       </c>
       <c r="C2" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>1.562994241714478</v>
+        <v>-0.1142753064632416</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.716788291931152</v>
+        <v>-2.306957960128784</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11.59289360046387</v>
+        <v>15.84000015258789</v>
       </c>
       <c r="I2" t="n">
-        <v>23.39999961853027</v>
+        <v>30.59999847412109</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-59.04471675790257</v>
+        <v>-58.83684937237869</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -590,19 +590,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1022.264770507812</v>
+        <v>1006.345520019531</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -613,16 +613,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.895500063896179</v>
+        <v>1.995500087738037</v>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>1.469647884368896</v>
+        <v>-0.4242559671401978</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.768479347229004</v>
+        <v>-2.608940839767456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12.18162441253662</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="I3" t="n">
-        <v>25.55999946594238</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-53.79478545891379</v>
+        <v>-53.71006532765241</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1021.967224121094</v>
+        <v>1006.243103027344</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -681,16 +681,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.795500040054321</v>
+        <v>1.745500087738037</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
-        <v>1.36999523639679</v>
+        <v>-0.1871570199728012</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.872865200042725</v>
+        <v>-2.456344842910767</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.09621429443359</v>
+        <v>14.04461479187012</v>
       </c>
       <c r="I4" t="n">
-        <v>26.63999938964844</v>
+        <v>33.11999893188477</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-46.26410532991822</v>
+        <v>-46.25518862537569</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -726,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.965698242188</v>
+        <v>1006.338562011719</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -749,16 +749,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.345499992370605</v>
+        <v>2.045500040054321</v>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>1.773005962371826</v>
+        <v>-0.3752386569976807</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.266517162322998</v>
+        <v>-2.299287557601929</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>12.18162441253662</v>
+        <v>14.83007621765137</v>
       </c>
       <c r="I5" t="n">
-        <v>26.63999938964844</v>
+        <v>32.03999710083008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-37.60349471976404</v>
+        <v>-37.63058887380956</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1021.875610351562</v>
+        <v>1005.746459960938</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
@@ -817,16 +817,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.545500040054321</v>
+        <v>1.945500016212463</v>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>1.825414776802063</v>
+        <v>-0.8038225173950195</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.183277606964111</v>
+        <v>-2.663259983062744</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13.04472160339355</v>
+        <v>16.20399856567383</v>
       </c>
       <c r="I6" t="n">
-        <v>28.44000053405762</v>
+        <v>32.39999771118164</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-28.52427508380008</v>
+        <v>-28.55936767113591</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1021.381225585938</v>
+        <v>1005.645385742188</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -885,16 +885,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.14549994468689</v>
+        <v>1.695500016212463</v>
       </c>
       <c r="C7" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>1.280202865600586</v>
+        <v>-1.048245549201965</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.635891914367676</v>
+        <v>-2.800689935684204</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -903,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12.76858615875244</v>
+        <v>15.18841457366943</v>
       </c>
       <c r="I7" t="n">
-        <v>28.07999992370605</v>
+        <v>33.83999633789062</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-19.48608419908808</v>
+        <v>-19.50860562394264</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.075927734375</v>
+        <v>1005.839965820312</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -953,28 +953,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.545500040054321</v>
+        <v>1.845499992370605</v>
       </c>
       <c r="C8" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>1.972073435783386</v>
+        <v>-0.7355679273605347</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9695181846618652</v>
+        <v>-2.707932472229004</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>11.75387573242188</v>
+        <v>15.89309310913086</v>
       </c>
       <c r="I8" t="n">
-        <v>27</v>
+        <v>31.68000030517578</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-10.84394500929012</v>
+        <v>-10.83708930697324</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1021.679870605469</v>
+        <v>1005.543884277344</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1021,16 +1021,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.745500087738037</v>
+        <v>1.545500040054321</v>
       </c>
       <c r="C9" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>2.171140432357788</v>
+        <v>-1.194902062416077</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6376609802246094</v>
+        <v>-3.751107454299927</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>11.09010314941406</v>
+        <v>20.53262710571289</v>
       </c>
       <c r="I9" t="n">
-        <v>25.55999946594238</v>
+        <v>41.39999771118164</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.929329048174294</v>
+        <v>-2.878061139921184</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1021.484375</v>
+        <v>1004.842163085938</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -1089,16 +1089,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.995500087738037</v>
+        <v>1.495500087738037</v>
       </c>
       <c r="C10" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
-        <v>2.124203443527222</v>
+        <v>-1.07823371887207</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7104179859161377</v>
+        <v>-3.604091167449951</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1107,25 +1107,25 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>13.246826171875</v>
+        <v>19.29613304138184</v>
       </c>
       <c r="I10" t="n">
-        <v>28.79999923706055</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="J10" t="n">
-        <v>5.511658668518066</v>
+        <v>10.95587730407715</v>
       </c>
       <c r="K10" t="n">
-        <v>5.511658668518066</v>
+        <v>10.95587730407715</v>
       </c>
       <c r="L10" t="n">
-        <v>1.927108526229858</v>
+        <v>3.905499696731567</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="N10" t="n">
-        <v>4.099115652104699</v>
+        <v>4.20501626574179</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.886901855469</v>
+        <v>1004.841247558594</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -1157,16 +1157,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.745500087738037</v>
+        <v>1.995500087738037</v>
       </c>
       <c r="C11" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>1.875970005989075</v>
+        <v>-1.791790843009949</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9831361770629883</v>
+        <v>-4.050530433654785</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>13.10419845581055</v>
+        <v>25.09951400756836</v>
       </c>
       <c r="I11" t="n">
-        <v>32.39999771118164</v>
+        <v>46.43999862670898</v>
       </c>
       <c r="J11" t="n">
-        <v>26.1487865447998</v>
+        <v>58.04184722900391</v>
       </c>
       <c r="K11" t="n">
-        <v>26.1487865447998</v>
+        <v>53.23364639282227</v>
       </c>
       <c r="L11" t="n">
-        <v>22.71493530273438</v>
+        <v>72.22203063964844</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.25</v>
       </c>
       <c r="N11" t="n">
-        <v>9.394852969052366</v>
+        <v>9.572386058050956</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1022.877746582031</v>
+        <v>1005.446899414062</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.595499992370605</v>
+        <v>2.195500135421753</v>
       </c>
       <c r="C12" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D12" t="n">
-        <v>1.426608800888062</v>
+        <v>-2.52051305770874</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.34120512008667</v>
+        <v>-4.14323616027832</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1243,25 +1243,25 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14.00302791595459</v>
+        <v>26.43733596801758</v>
       </c>
       <c r="I12" t="n">
-        <v>30.23999786376953</v>
+        <v>55.07999801635742</v>
       </c>
       <c r="J12" t="n">
-        <v>35.67894744873047</v>
+        <v>84.81847381591797</v>
       </c>
       <c r="K12" t="n">
-        <v>34.82265472412109</v>
+        <v>71.68161010742188</v>
       </c>
       <c r="L12" t="n">
-        <v>34.1684684753418</v>
+        <v>114.8597717285156</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="N12" t="n">
-        <v>12.94342581261875</v>
+        <v>13.19800262707747</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1021.8798828125</v>
+        <v>1004.255981445312</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -1293,43 +1293,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.795500040054321</v>
+        <v>2.345499992370605</v>
       </c>
       <c r="C13" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D13" t="n">
-        <v>1.317950129508972</v>
+        <v>-2.376228809356689</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.093593120574951</v>
+        <v>-4.134276390075684</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>13.55150127410889</v>
+        <v>27.53470420837402</v>
       </c>
       <c r="I13" t="n">
-        <v>31.31999778747559</v>
+        <v>63</v>
       </c>
       <c r="J13" t="n">
-        <v>44.66493988037109</v>
+        <v>123.3017730712891</v>
       </c>
       <c r="K13" t="n">
-        <v>43.88589859008789</v>
+        <v>82.72144317626953</v>
       </c>
       <c r="L13" t="n">
-        <v>41.53041839599609</v>
+        <v>215.5317993164062</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3499999940395355</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="N13" t="n">
-        <v>14.39837491571258</v>
+        <v>14.72956485433336</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1021.684387207031</v>
+        <v>1004.059753417969</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -1361,16 +1361,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.14549994468689</v>
+        <v>2.995500087738037</v>
       </c>
       <c r="C14" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>1.507661461830139</v>
+        <v>-2.94512677192688</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7163898944854736</v>
+        <v>-3.187310695648193</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1379,25 +1379,25 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>13.58493232727051</v>
+        <v>24.99343872070312</v>
       </c>
       <c r="I14" t="n">
-        <v>30.59999847412109</v>
+        <v>63.72000122070312</v>
       </c>
       <c r="J14" t="n">
-        <v>42.9483757019043</v>
+        <v>112.4355545043945</v>
       </c>
       <c r="K14" t="n">
-        <v>42.468505859375</v>
+        <v>82.09962463378906</v>
       </c>
       <c r="L14" t="n">
-        <v>39.18724822998047</v>
+        <v>177.4202575683594</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="N14" t="n">
-        <v>13.61768648180038</v>
+        <v>14.01715183001638</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1021.192810058594</v>
+        <v>1003.075561523438</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -1429,16 +1429,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.195500135421753</v>
+        <v>2.595499992370605</v>
       </c>
       <c r="C15" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D15" t="n">
-        <v>1.556998491287231</v>
+        <v>-1.946123600006104</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5704994201660156</v>
+        <v>-3.529757022857666</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1447,25 +1447,25 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>12.98497486114502</v>
+        <v>25.49908065795898</v>
       </c>
       <c r="I15" t="n">
-        <v>29.51999855041504</v>
+        <v>55.43999862670898</v>
       </c>
       <c r="J15" t="n">
-        <v>32.94524002075195</v>
+        <v>60.71730041503906</v>
       </c>
       <c r="K15" t="n">
-        <v>31.86151504516602</v>
+        <v>51.32577514648438</v>
       </c>
       <c r="L15" t="n">
-        <v>32.26020812988281</v>
+        <v>80.17272186279297</v>
       </c>
       <c r="M15" t="n">
-        <v>0.550000011920929</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="N15" t="n">
-        <v>10.67827691760085</v>
+        <v>11.13137759801842</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>1020.895080566406</v>
+        <v>1001.874267578125</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -1497,43 +1497,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.14549994468689</v>
+        <v>0.7454999685287476</v>
       </c>
       <c r="C16" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D16" t="n">
-        <v>1.507661461830139</v>
+        <v>-0.2572209239006042</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6376090049743652</v>
+        <v>-4.517005920410156</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.300000071525574</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="H16" t="n">
-        <v>13.04472160339355</v>
+        <v>21.24304962158203</v>
       </c>
       <c r="I16" t="n">
-        <v>29.51999855041504</v>
+        <v>61.56000137329102</v>
       </c>
       <c r="J16" t="n">
-        <v>18.47818374633789</v>
+        <v>16.32517051696777</v>
       </c>
       <c r="K16" t="n">
-        <v>18.30549049377441</v>
+        <v>16.32517051696777</v>
       </c>
       <c r="L16" t="n">
-        <v>16.99298286437988</v>
+        <v>14.41255855560303</v>
       </c>
       <c r="M16" t="n">
-        <v>0.300000011920929</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="N16" t="n">
-        <v>5.862187889944693</v>
+        <v>6.348893625980388</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>1020.49609375</v>
+        <v>1002.638793945312</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -1565,28 +1565,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.245500087738037</v>
+        <v>1.195500016212463</v>
       </c>
       <c r="C17" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D17" t="n">
-        <v>1.76255202293396</v>
+        <v>-1.371955752372742</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3681116104125977</v>
+        <v>-4.429022312164307</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.18162441253662</v>
+        <v>22.60845756530762</v>
       </c>
       <c r="I17" t="n">
-        <v>27.71999931335449</v>
+        <v>52.56000137329102</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.129483315260652</v>
+        <v>0.3076494115000895</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1020.696716308594</v>
+        <v>1003.641906738281</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -1633,28 +1633,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.89549994468689</v>
+        <v>0.6954999566078186</v>
       </c>
       <c r="C18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D18" t="n">
-        <v>1.416751503944397</v>
+        <v>-2.360374927520752</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6716446876525879</v>
+        <v>-4.760000228881836</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>11.45795822143555</v>
+        <v>20.52315711975098</v>
       </c>
       <c r="I18" t="n">
-        <v>25.55999946594238</v>
+        <v>50.39999771118164</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-8.34409902971942</v>
+        <v>-7.806609839496438</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1678,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1020.491882324219</v>
+        <v>1004.628356933594</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -1701,16 +1701,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.595499992370605</v>
+        <v>0.1955000162124634</v>
       </c>
       <c r="C19" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D19" t="n">
-        <v>1.120345711708069</v>
+        <v>-3.361599922180176</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.17273998260498</v>
+        <v>-5.17177152633667</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1719,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>12.49671840667725</v>
+        <v>19.03919982910156</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>41.76000213623047</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-16.79869982788918</v>
+        <v>-16.25261013287791</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1746,19 +1746,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1020.187927246094</v>
+        <v>1005.316223144531</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -1769,16 +1769,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.195500135421753</v>
+        <v>-0.004499997943639755</v>
       </c>
       <c r="C20" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7251322269439697</v>
+        <v>-3.382907629013062</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.596919059753418</v>
+        <v>-5.105290412902832</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>12.21880531311035</v>
+        <v>17.19353294372559</v>
       </c>
       <c r="I20" t="n">
-        <v>27.35999870300293</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-25.74899913243776</v>
+        <v>-25.19888975266997</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1814,19 +1814,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1019.981750488281</v>
+        <v>1006.109008789062</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
@@ -1837,16 +1837,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.695500016212463</v>
+        <v>-0.3544999957084656</v>
       </c>
       <c r="C21" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2311038374900818</v>
+        <v>-2.728290319442749</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.287278652191162</v>
+        <v>-5.190197944641113</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>12.98497486114502</v>
+        <v>15.94194412231445</v>
       </c>
       <c r="I21" t="n">
-        <v>27.71999931335449</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.85279430774231</v>
+        <v>-34.30216523082223</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1882,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1019.87353515625</v>
+        <v>1006.401489257812</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -1905,16 +1905,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.445500016212463</v>
+        <v>-0.5545000433921814</v>
       </c>
       <c r="C22" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01591489464044571</v>
+        <v>-2.76500415802002</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.539666175842285</v>
+        <v>-5.53761100769043</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>12.73809909820557</v>
+        <v>16.91999816894531</v>
       </c>
       <c r="I22" t="n">
-        <v>28.07999992370605</v>
+        <v>35.27999877929688</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-43.69312872044726</v>
+        <v>-43.14684496948826</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1950,19 +1950,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1020.167663574219</v>
+        <v>1007.194213867188</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -1973,16 +1973,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.245500087738037</v>
+        <v>-0.5545000433921814</v>
       </c>
       <c r="C23" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.06133168563246727</v>
+        <v>-2.451150178909302</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.569877147674561</v>
+        <v>-5.444872379302979</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>11.5256233215332</v>
+        <v>16.56391143798828</v>
       </c>
       <c r="I23" t="n">
-        <v>27</v>
+        <v>36.36000061035156</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-51.65388300972523</v>
+        <v>-51.12371808716019</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2018,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1020.263671875</v>
+        <v>1008.488037109375</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -2041,16 +2041,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.095499992370605</v>
+        <v>-0.5045000314712524</v>
       </c>
       <c r="C24" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05919216573238373</v>
+        <v>-2.247333765029907</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.752873420715332</v>
+        <v>-5.579432487487793</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>11.75387573242188</v>
+        <v>18.0143928527832</v>
       </c>
       <c r="I24" t="n">
-        <v>25.55999946594238</v>
+        <v>37.43999862670898</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-57.73036275725701</v>
+        <v>-57.24637929184995</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1020.261169433594</v>
+        <v>1009.185668945312</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -2109,16 +2109,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.045500040054321</v>
+        <v>-0.4044999778270721</v>
       </c>
       <c r="C25" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04031489789485931</v>
+        <v>-2.303488254547119</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.690762042999268</v>
+        <v>-5.445628643035889</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>11.09010314941406</v>
+        <v>17.73159790039062</v>
       </c>
       <c r="I25" t="n">
-        <v>25.19999885559082</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-60.50774860815972</v>
+        <v>-60.12494613784215</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2154,19 +2154,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1020.260192871094</v>
+        <v>1009.9833984375</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
